--- a/uml/IMKL2.x/IMKL-UML-XSD-Objectcatalogus-changelog.xlsx
+++ b/uml/IMKL2.x/IMKL-UML-XSD-Objectcatalogus-changelog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-dev\uml\IMKL2.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A557C3B4-C2AA-42BB-BD1F-706D8E19B78C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55176142-236B-432D-81ED-8A46B8B73236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
+    <workbookView xWindow="630" yWindow="1485" windowWidth="37095" windowHeight="13935" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="119">
   <si>
     <t>Datum</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>nvt</t>
+  </si>
+  <si>
+    <t>nietaangepast</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,12 +524,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +542,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -593,9 +590,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -932,7 +926,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1482,31 +1476,31 @@
       </c>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
+    <row r="21" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
         <v>43943</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="I21" s="22">
+      <c r="H21" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="21">
         <v>193</v>
       </c>
-      <c r="J21" s="21"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
@@ -1560,7 +1554,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>43944</v>
       </c>
@@ -1579,7 +1573,7 @@
       <c r="H24" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="I24" s="19"/>
+      <c r="I24" s="18"/>
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -2061,7 +2055,9 @@
       <c r="F44" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G44" s="18"/>
+      <c r="G44" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="H44" s="6" t="s">
         <v>114</v>
       </c>
@@ -2081,7 +2077,9 @@
       <c r="F45" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G45" s="18"/>
+      <c r="G45" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="H45" s="6" t="s">
         <v>114</v>
       </c>
@@ -2309,7 +2307,9 @@
       <c r="F54" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="G54" s="18"/>
+      <c r="G54" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="H54" s="6" t="s">
         <v>114</v>
       </c>
@@ -3987,6 +3987,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003ADD3040E3157B4E913BCA65F34844D7" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c1765059aa1475931adc12138fdcfd8c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aafb19fa-82be-411d-a6df-c75e9235a4ea" xmlns:ns3="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="42d79c55539af1f9f274032ce6041302" ns2:_="" ns3:_="">
     <xsd:import namespace="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
@@ -4189,15 +4198,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
   <ds:schemaRefs>
@@ -4208,6 +4208,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C9FDDB-2830-4DD6-A847-D844746B12F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4224,12 +4232,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/uml/IMKL2.x/IMKL-UML-XSD-Objectcatalogus-changelog.xlsx
+++ b/uml/IMKL2.x/IMKL-UML-XSD-Objectcatalogus-changelog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-dev\uml\IMKL2.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55176142-236B-432D-81ED-8A46B8B73236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3461778B-AF51-459F-8D02-8A8B064849FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="1485" windowWidth="37095" windowHeight="13935" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
+    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="121">
   <si>
     <t>Datum</t>
   </si>
@@ -434,6 +434,12 @@
   </si>
   <si>
     <t>nietaangepast</t>
+  </si>
+  <si>
+    <t>eisVoorzorgsmaatregel</t>
+  </si>
+  <si>
+    <t>-&gt; indicatieEisvoorzorgsmaatregel</t>
   </si>
 </sst>
 </file>
@@ -542,7 +548,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -604,6 +610,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -924,9 +933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B8AAF5-2631-4C35-B121-F1562B5D065D}">
   <dimension ref="A1:N179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G59:G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2317,15 +2326,29 @@
       <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
+      <c r="A55" s="6">
+        <v>44008</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="15"/>
+      <c r="F55" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I55" s="15">
+        <v>296</v>
+      </c>
       <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -3981,21 +4004,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003ADD3040E3157B4E913BCA65F34844D7" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c1765059aa1475931adc12138fdcfd8c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aafb19fa-82be-411d-a6df-c75e9235a4ea" xmlns:ns3="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="42d79c55539af1f9f274032ce6041302" ns2:_="" ns3:_="">
     <xsd:import namespace="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
@@ -4198,24 +4206,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C9FDDB-2830-4DD6-A847-D844746B12F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4232,4 +4238,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/uml/IMKL2.x/IMKL-UML-XSD-Objectcatalogus-changelog.xlsx
+++ b/uml/IMKL2.x/IMKL-UML-XSD-Objectcatalogus-changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-dev\uml\IMKL2.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3461778B-AF51-459F-8D02-8A8B064849FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DB1827-7271-4AE7-A687-8E66F10C637F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="123">
   <si>
     <t>Datum</t>
   </si>
@@ -282,9 +282,6 @@
   </si>
   <si>
     <t>GebiedsInformatieLevering</t>
-  </si>
-  <si>
-    <t>KaartBGTrasterVerplicht</t>
   </si>
   <si>
     <t>geoNauwkeurigheidXY</t>
@@ -440,6 +437,16 @@
   </si>
   <si>
     <t>-&gt; indicatieEisvoorzorgsmaatregel</t>
+  </si>
+  <si>
+    <t>Aanvrager</t>
+  </si>
+  <si>
+    <t>extraEmail</t>
+  </si>
+  <si>
+    <t>extraEmail hernoemd naar extraContact. Definitie:
+Extra contact naast dat van de contactpersoon.</t>
   </si>
 </sst>
 </file>
@@ -931,11 +938,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B8AAF5-2631-4C35-B121-F1562B5D065D}">
-  <dimension ref="A1:N179"/>
+  <dimension ref="A1:N178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G60" sqref="G59:G60"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -975,7 +982,7 @@
         <v>65</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>6</v>
@@ -1001,7 +1008,7 @@
         <v>49</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I2" s="15">
         <v>240</v>
@@ -1024,10 +1031,10 @@
         <v>11</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I3" s="15">
         <v>240</v>
@@ -1053,7 +1060,7 @@
         <v>49</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I4" s="15">
         <v>280</v>
@@ -1079,7 +1086,7 @@
         <v>49</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I5" s="15">
         <v>210</v>
@@ -1105,7 +1112,7 @@
         <v>49</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I6" s="15">
         <v>210</v>
@@ -1128,10 +1135,10 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I7" s="15">
         <v>210</v>
@@ -1157,7 +1164,7 @@
         <v>49</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I8" s="15">
         <v>210</v>
@@ -1180,10 +1187,10 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I9" s="15">
         <v>210</v>
@@ -1208,10 +1215,10 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I10" s="15">
         <v>239</v>
@@ -1237,7 +1244,7 @@
         <v>49</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I11" s="15">
         <v>219</v>
@@ -1263,7 +1270,7 @@
         <v>49</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I12" s="15">
         <v>219</v>
@@ -1289,7 +1296,7 @@
         <v>49</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I13" s="15">
         <v>219</v>
@@ -1305,7 +1312,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1316,7 +1323,7 @@
         <v>49</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I14" s="15">
         <v>215</v>
@@ -1340,10 +1347,10 @@
         <v>28</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I15" s="15">
         <v>214</v>
@@ -1370,7 +1377,7 @@
         <v>49</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I16" s="15">
         <v>199</v>
@@ -1397,7 +1404,7 @@
         <v>49</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I17" s="15">
         <v>199</v>
@@ -1424,7 +1431,7 @@
         <v>49</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I18" s="15">
         <v>197</v>
@@ -1451,7 +1458,7 @@
         <v>49</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I19" s="15">
         <v>197</v>
@@ -1475,10 +1482,10 @@
         <v>11</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I20" s="15">
         <v>195</v>
@@ -1490,7 +1497,7 @@
         <v>43943</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>36</v>
@@ -1504,7 +1511,7 @@
         <v>49</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I21" s="21">
         <v>193</v>
@@ -1527,10 +1534,10 @@
         <v>75</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I22" s="15">
         <v>195</v>
@@ -1553,10 +1560,10 @@
         <v>39</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I23" s="15">
         <v>282</v>
@@ -1577,10 +1584,10 @@
         <v>39</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="12"/>
@@ -1602,7 +1609,7 @@
         <v>49</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I25" s="15">
         <v>215</v>
@@ -1628,7 +1635,7 @@
         <v>49</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I26" s="15">
         <v>215</v>
@@ -1649,10 +1656,10 @@
         <v>55</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I27" s="15">
         <v>286</v>
@@ -1673,10 +1680,10 @@
         <v>57</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="6"/>
@@ -1699,10 +1706,10 @@
         <v>39</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I29" s="15">
         <v>269</v>
@@ -1727,10 +1734,10 @@
         <v>39</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I30" s="15">
         <v>269</v>
@@ -1751,37 +1758,41 @@
         <v>79</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="6"/>
+    <row r="32" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>43976</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I32" s="15"/>
+        <v>113</v>
+      </c>
+      <c r="I32" s="15">
+        <v>240</v>
+      </c>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>43976</v>
       </c>
@@ -1794,98 +1805,96 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I33" s="15">
         <v>240</v>
       </c>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>43976</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>8</v>
+      <c r="B34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="F34" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G34" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I34" s="15">
+        <v>269</v>
+      </c>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>43984</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I34" s="15">
-        <v>240</v>
-      </c>
-      <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
-        <v>43976</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="H35" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I35" s="15">
-        <v>269</v>
-      </c>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="I35" s="15"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" ht="84" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>43984</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I36" s="15"/>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" ht="84" x14ac:dyDescent="0.2">
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>43984</v>
       </c>
@@ -1893,18 +1902,18 @@
         <v>91</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="7"/>
@@ -1922,13 +1931,13 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="7"/>
@@ -1941,42 +1950,42 @@
         <v>93</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>43984</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="7"/>
@@ -1986,10 +1995,10 @@
         <v>43984</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -2000,58 +2009,56 @@
         <v>49</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>43984</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>82</v>
-      </c>
+        <v>43990</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>43990</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="13" t="s">
         <v>97</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G43" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="12" t="s">
         <v>49</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="290.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>43990</v>
       </c>
@@ -2062,44 +2069,48 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10" ht="290.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>43990</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="6"/>
+      <c r="C45" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="E45" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="F45" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>118</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G45" s="6"/>
       <c r="H45" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I45" s="15"/>
+        <v>113</v>
+      </c>
+      <c r="I45" s="15">
+        <v>269</v>
+      </c>
       <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>43990</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="6" t="s">
         <v>100</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -2114,7 +2125,7 @@
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I46" s="15">
         <v>269</v>
@@ -2140,7 +2151,7 @@
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I47" s="15">
         <v>269</v>
@@ -2166,7 +2177,7 @@
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I48" s="15">
         <v>269</v>
@@ -2192,7 +2203,7 @@
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I49" s="15">
         <v>269</v>
@@ -2218,7 +2229,7 @@
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I50" s="15">
         <v>269</v>
@@ -2230,7 +2241,7 @@
         <v>43990</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>62</v>
@@ -2244,7 +2255,7 @@
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I51" s="15">
         <v>269</v>
@@ -2256,7 +2267,7 @@
         <v>43990</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>62</v>
@@ -2270,84 +2281,84 @@
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I52" s="15">
         <v>269</v>
       </c>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="144" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>43990</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>62</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="H53" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I53" s="15">
-        <v>269</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="I53" s="15"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="1:12" ht="144" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>43990</v>
+        <v>44008</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C54" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>49</v>
+      <c r="F54" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I54" s="15"/>
+        <v>113</v>
+      </c>
+      <c r="I54" s="15">
+        <v>296</v>
+      </c>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
-        <v>44008</v>
+        <v>44015</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="23" t="s">
-        <v>120</v>
+      <c r="F55" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I55" s="15">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J55" s="7"/>
     </row>
@@ -2374,6 +2385,8 @@
       <c r="H57" s="6"/>
       <c r="I57" s="15"/>
       <c r="J57" s="7"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
@@ -2441,7 +2454,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="15"/>
-      <c r="J62" s="7"/>
+      <c r="J62" s="6"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
     </row>
@@ -2469,7 +2482,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="15"/>
-      <c r="J64" s="6"/>
+      <c r="J64" s="7"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
     </row>
@@ -2489,15 +2502,15 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
       <c r="I66" s="15"/>
-      <c r="J66" s="7"/>
+      <c r="J66" s="6"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
     </row>
@@ -2525,7 +2538,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="15"/>
-      <c r="J68" s="6"/>
+      <c r="J68" s="7"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
     </row>
@@ -2763,7 +2776,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
       <c r="I85" s="15"/>
-      <c r="J85" s="7"/>
+      <c r="J85" s="6"/>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
     </row>
@@ -2847,7 +2860,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
       <c r="I91" s="15"/>
-      <c r="J91" s="6"/>
+      <c r="J91" s="7"/>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
     </row>
@@ -3016,8 +3029,6 @@
       <c r="H103" s="7"/>
       <c r="I103" s="15"/>
       <c r="J103" s="7"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
@@ -3213,7 +3224,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
-      <c r="B120" s="7"/>
+      <c r="B120" s="6"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
@@ -3225,7 +3236,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
+      <c r="B121" s="7"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
@@ -3261,15 +3272,15 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
       <c r="I124" s="15"/>
-      <c r="J124" s="7"/>
+      <c r="J124" s="6"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
@@ -3296,16 +3307,16 @@
       <c r="J126" s="6"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
+      <c r="A127" s="10"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
       <c r="I127" s="15"/>
-      <c r="J127" s="6"/>
+      <c r="J127" s="11"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="10"/>
@@ -3392,7 +3403,7 @@
       <c r="J134" s="11"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="10"/>
+      <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
@@ -3400,7 +3411,7 @@
       <c r="F135" s="11"/>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
-      <c r="I135" s="15"/>
+      <c r="I135" s="16"/>
       <c r="J135" s="11"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
@@ -3918,18 +3929,6 @@
       <c r="H178" s="11"/>
       <c r="I178" s="16"/>
       <c r="J178" s="11"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A179" s="11"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
-      <c r="E179" s="11"/>
-      <c r="F179" s="11"/>
-      <c r="G179" s="11"/>
-      <c r="H179" s="11"/>
-      <c r="I179" s="16"/>
-      <c r="J179" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4004,6 +4003,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003ADD3040E3157B4E913BCA65F34844D7" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c1765059aa1475931adc12138fdcfd8c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aafb19fa-82be-411d-a6df-c75e9235a4ea" xmlns:ns3="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="42d79c55539af1f9f274032ce6041302" ns2:_="" ns3:_="">
     <xsd:import namespace="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
@@ -4206,22 +4220,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C9FDDB-2830-4DD6-A847-D844746B12F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4238,21 +4254,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/uml/IMKL2.x/IMKL-UML-XSD-Objectcatalogus-changelog.xlsx
+++ b/uml/IMKL2.x/IMKL-UML-XSD-Objectcatalogus-changelog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-dev\uml\IMKL2.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DB1827-7271-4AE7-A687-8E66F10C637F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C445744-5F89-4690-B530-CB268DF71A44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="126">
   <si>
     <t>Datum</t>
   </si>
@@ -244,9 +244,6 @@
   </si>
   <si>
     <t>GeometrieVlakOf Multivlak</t>
-  </si>
-  <si>
-    <t>GeometrieVlakOfMultivlak</t>
   </si>
   <si>
     <t>LabelMax40Karakters</t>
@@ -377,11 +374,6 @@
 wordt: 
 definition: Een informatiepolygoon is de weergave door een grondroerder van het gebied, waarvoor gebiedsinformatie wordt gevraagd.
 Description: De gebiedsinformatie die zich bevindt tussen een informatiepolygoon en de graafpolygoon is puur ter informatie en ondersteuning van de werkzaamheden van de grondroerder.</t>
-  </si>
-  <si>
-    <t>was: Gebied dat een persoon of organisatie tekent om daar informatie over kabels en leidingen van te ontvangen.
-wordt: Een oriëntatiepolygoon is de weergave door een opdrachtgever, grondroerder, aanbieder of bestuursorgaan van een aangesloten gebied, ten aanzien waarvan deze om gebiedsinformatie verzoekt met het oog op respectievelijk het voorbereiden van graafwerkzaamheden, het voorbereiden van een verzoek tot medegebruik of coördinatie, of ten behoeve van de hem opgedragen taak.
- --Source--Artikel 1 en Artikel 7 WIBON</t>
   </si>
   <si>
     <r>
@@ -447,6 +439,31 @@
   <si>
     <t>extraEmail hernoemd naar extraContact. Definitie:
 Extra contact naast dat van de contactpersoon.</t>
+  </si>
+  <si>
+    <t>2DGeometrieVlakOfMultivlak</t>
+  </si>
+  <si>
+    <t>2.5DGeometrieVlakOfMultivlak</t>
+  </si>
+  <si>
+    <t>LocatieOmschrijvingMax100Karakters</t>
+  </si>
+  <si>
+    <t>definitie en toelichting gewijzigd:
+was: -- Definition --
+Geometrie die specifiek is gecreëerd voor de visualisatie van het gebied tussen de buitenring van de graafpolygoon en de buitenring van de informatiepolygoon.
+-- Description --
+De graafpolygoon mag niet buiten de informatiepolygoon vallen. Voor het apart visualiseren van het gebied dat in de informatiepolgoon zit maar niet in de graafpolygoon is deze geometrie gegenereerd. Het heeft als buitenring de contour van de informatiepolygoon en als binnenring de contour van de graafpolygoon.
+wordt: -- Definition --
+Geometrie die specifiek is gecreëerd voor de visualisatie van het gebied tussen de graafpolygoon en de buitenring van de informatiepolygoon.
+-- Description --
+De graafpolygoon mag niet buiten de informatiepolygoon vallen. De geometrie is een vlak of een multivlak en omvat het gebied van de informatiepolygoon exclusief het gebied van de graafpolygoon.</t>
+  </si>
+  <si>
+    <t>was: Gebied dat een persoon of organisatie tekent om daar informatie over kabels en leidingen van te ontvangen.
+wordt: Een oriëntatiepolygoon is de weergave door een opdrachtgever, grondroerder, aanbieder of bestuursorgaan van een aangesloten gebied, ten aanzien waarvan deze om gebiedsinformatie verzoekt met het oog op respectievelijk het voorbereiden van graafwerkzaamheden, het voorbereiden van een verzoek tot medegebruik of coördinatie van civiele werken, of ten behoeve van de hem opgedragen taak.
+ --Source--Artikel 1 en Artikel 7 WIBON</t>
   </si>
 </sst>
 </file>
@@ -555,7 +572,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -621,6 +638,9 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -938,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B8AAF5-2631-4C35-B121-F1562B5D065D}">
-  <dimension ref="A1:N178"/>
+  <dimension ref="A1:N181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -951,7 +971,7 @@
     <col min="2" max="2" width="36.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="39" style="5" customWidth="1"/>
     <col min="6" max="6" width="47.42578125" style="5" customWidth="1"/>
     <col min="7" max="8" width="18.5703125" style="5" customWidth="1"/>
     <col min="9" max="9" width="19.140625" style="17" bestFit="1" customWidth="1"/>
@@ -982,7 +1002,7 @@
         <v>65</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>6</v>
@@ -1008,7 +1028,7 @@
         <v>49</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I2" s="15">
         <v>240</v>
@@ -1031,10 +1051,10 @@
         <v>11</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I3" s="15">
         <v>240</v>
@@ -1060,7 +1080,7 @@
         <v>49</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I4" s="15">
         <v>280</v>
@@ -1086,7 +1106,7 @@
         <v>49</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I5" s="15">
         <v>210</v>
@@ -1112,7 +1132,7 @@
         <v>49</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I6" s="15">
         <v>210</v>
@@ -1129,16 +1149,16 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I7" s="15">
         <v>210</v>
@@ -1150,21 +1170,21 @@
         <v>43943</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>3</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="F8" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I8" s="15">
         <v>210</v>
@@ -1178,19 +1198,19 @@
       <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I9" s="15">
         <v>210</v>
@@ -1201,27 +1221,25 @@
       <c r="A10" s="6">
         <v>43943</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>71</v>
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I10" s="15">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="J10" s="7"/>
     </row>
@@ -1230,24 +1248,26 @@
         <v>43943</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>113</v>
+      <c r="E11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="I11" s="15">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="J11" s="7"/>
     </row>
@@ -1264,13 +1284,13 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I12" s="15">
         <v>219</v>
@@ -1285,186 +1305,187 @@
         <v>21</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I13" s="15">
         <v>219</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="N13" s="8"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>43943</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I14" s="15">
-        <v>215</v>
-      </c>
-      <c r="J14" s="7"/>
+        <v>219</v>
+      </c>
+      <c r="J14" s="6"/>
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>43943</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I15" s="15">
-        <v>214</v>
-      </c>
-      <c r="J15" s="7"/>
+        <v>219</v>
+      </c>
+      <c r="J15" s="6"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>43943</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>113</v>
+      <c r="H16" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="I16" s="15">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="J16" s="7"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>43943</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="B17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>113</v>
+      <c r="E17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="I17" s="15">
-        <v>199</v>
-      </c>
-      <c r="J17" s="6"/>
+        <v>214</v>
+      </c>
+      <c r="J17" s="7"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>43943</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="F18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>113</v>
+      <c r="H18" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="I18" s="15">
-        <v>197</v>
-      </c>
-      <c r="J18" s="6"/>
+        <v>199</v>
+      </c>
+      <c r="J18" s="7"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>43943</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="F19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>113</v>
+      <c r="H19" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="I19" s="15">
-        <v>197</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="N19" s="9"/>
+        <v>199</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
@@ -1473,425 +1494,435 @@
       <c r="B20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I20" s="15">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20">
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
         <v>43943</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="20" t="s">
+      <c r="B21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" s="21">
-        <v>193</v>
-      </c>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="H21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="15">
+        <v>197</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>43943</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I22" s="15">
         <v>195</v>
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:14" ht="24" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+    <row r="23" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20">
         <v>43943</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="21">
+        <v>193</v>
+      </c>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>43943</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="15">
+        <v>195</v>
+      </c>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>43943</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23" s="15">
+      <c r="G25" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="15">
         <v>282</v>
       </c>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
         <v>43944</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B26" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
+      <c r="G26" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" s="15">
-        <v>215</v>
-      </c>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:14" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
-        <v>43959</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I26" s="15">
-        <v>215</v>
-      </c>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
-        <v>43959</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I27" s="15">
-        <v>286</v>
+        <v>215</v>
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>43959</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I28" s="15"/>
+        <v>111</v>
+      </c>
+      <c r="I28" s="15">
+        <v>215</v>
+      </c>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>43973</v>
+        <v>43959</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I29" s="15">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
+        <v>43959</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" s="15">
+        <v>195</v>
+      </c>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
         <v>43973</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="B31" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I30" s="15">
-        <v>269</v>
-      </c>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="15">
+        <v>269</v>
+      </c>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>43973</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I32" s="15">
+        <v>269</v>
+      </c>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:14" ht="60" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
-        <v>43976</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I32" s="15">
-        <v>240</v>
-      </c>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:10" ht="96" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
-        <v>43976</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I33" s="15">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>43976</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>62</v>
+      <c r="B34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="E34" s="6"/>
       <c r="F34" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I34" s="15">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>43984</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>81</v>
+        <v>43976</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" ht="84" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="I35" s="15">
+        <v>240</v>
+      </c>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>43984</v>
+        <v>43976</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="F36" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I36" s="15"/>
+        <v>111</v>
+      </c>
+      <c r="I36" s="15">
+        <v>269</v>
+      </c>
       <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" ht="36" x14ac:dyDescent="0.2">
@@ -1899,45 +1930,45 @@
         <v>43984</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I37" s="15"/>
-      <c r="J37" s="7"/>
-    </row>
-    <row r="38" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" ht="84" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>43984</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="7"/>
@@ -1947,197 +1978,193 @@
         <v>43984</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>43984</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>43984</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>43990</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" s="6"/>
+        <v>43984</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
-        <v>43990</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="6"/>
+        <v>43984</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G43" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10" ht="290.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>43990</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>98</v>
+      <c r="B44" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>117</v>
+        <v>105</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>43990</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="B45" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="E45" s="6"/>
       <c r="F45" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="H45" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I45" s="15">
-        <v>269</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="I45" s="15"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="290.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>43990</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="B46" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="E46" s="6"/>
       <c r="F46" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" s="6"/>
+        <v>109</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="H46" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I46" s="15">
-        <v>269</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="I46" s="15"/>
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>43990</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>101</v>
+      <c r="B47" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>62</v>
@@ -2151,7 +2178,7 @@
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I47" s="15">
         <v>269</v>
@@ -2163,7 +2190,7 @@
         <v>43990</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>62</v>
@@ -2177,7 +2204,7 @@
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I48" s="15">
         <v>269</v>
@@ -2189,7 +2216,7 @@
         <v>43990</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>62</v>
@@ -2203,7 +2230,7 @@
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I49" s="15">
         <v>269</v>
@@ -2215,7 +2242,7 @@
         <v>43990</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>62</v>
@@ -2229,7 +2256,7 @@
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I50" s="15">
         <v>269</v>
@@ -2241,7 +2268,7 @@
         <v>43990</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>62</v>
@@ -2255,7 +2282,7 @@
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I51" s="15">
         <v>269</v>
@@ -2267,7 +2294,7 @@
         <v>43990</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>62</v>
@@ -2281,140 +2308,181 @@
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I52" s="15">
         <v>269</v>
       </c>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:12" ht="144" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>43990</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>49</v>
-      </c>
+      <c r="E53" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" s="6"/>
       <c r="H53" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I53" s="15"/>
+        <v>111</v>
+      </c>
+      <c r="I53" s="15">
+        <v>269</v>
+      </c>
       <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
+        <v>43990</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I54" s="15">
+        <v>269</v>
+      </c>
+      <c r="J54" s="7"/>
+    </row>
+    <row r="55" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="12">
+        <v>43990</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I55" s="24">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="144" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
         <v>44008</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I54" s="15">
-        <v>296</v>
-      </c>
-      <c r="J54" s="7"/>
-    </row>
-    <row r="55" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
-        <v>44015</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I55" s="15">
-        <v>298</v>
-      </c>
-      <c r="J55" s="7"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
+      <c r="B56" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
+      <c r="F56" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="I56" s="15"/>
       <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
+      <c r="A57" s="6">
+        <v>44008</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="15"/>
+      <c r="F57" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I57" s="15">
+        <v>296</v>
+      </c>
       <c r="J57" s="7"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
+    </row>
+    <row r="58" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>44015</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="15"/>
+      <c r="F58" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I58" s="15">
+        <v>298</v>
+      </c>
       <c r="J58" s="7"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
+    </row>
+    <row r="59" spans="1:12" ht="264" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>44015</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
+      <c r="F59" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="15"/>
       <c r="J59" s="7"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
@@ -2454,7 +2522,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="15"/>
-      <c r="J62" s="6"/>
+      <c r="J62" s="7"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
     </row>
@@ -2468,7 +2536,7 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="15"/>
-      <c r="J63" s="6"/>
+      <c r="J63" s="7"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
     </row>
@@ -2496,19 +2564,19 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="15"/>
-      <c r="J65" s="7"/>
+      <c r="J65" s="6"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
       <c r="I66" s="15"/>
       <c r="J66" s="6"/>
       <c r="K66" s="9"/>
@@ -2516,27 +2584,27 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
       <c r="I67" s="15"/>
-      <c r="J67" s="6"/>
+      <c r="J67" s="7"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
       <c r="I68" s="15"/>
       <c r="J68" s="7"/>
       <c r="K68" s="9"/>
@@ -2552,7 +2620,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="15"/>
-      <c r="J69" s="7"/>
+      <c r="J69" s="6"/>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
     </row>
@@ -2566,7 +2634,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="15"/>
-      <c r="J70" s="7"/>
+      <c r="J70" s="6"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
     </row>
@@ -2776,7 +2844,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
       <c r="I85" s="15"/>
-      <c r="J85" s="6"/>
+      <c r="J85" s="7"/>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
     </row>
@@ -2790,7 +2858,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
       <c r="I86" s="15"/>
-      <c r="J86" s="6"/>
+      <c r="J86" s="7"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
     </row>
@@ -2804,7 +2872,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="15"/>
-      <c r="J87" s="6"/>
+      <c r="J87" s="7"/>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
     </row>
@@ -2860,7 +2928,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
       <c r="I91" s="15"/>
-      <c r="J91" s="7"/>
+      <c r="J91" s="6"/>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
     </row>
@@ -2874,7 +2942,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
       <c r="I92" s="15"/>
-      <c r="J92" s="7"/>
+      <c r="J92" s="6"/>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
     </row>
@@ -2888,7 +2956,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
       <c r="I93" s="15"/>
-      <c r="J93" s="7"/>
+      <c r="J93" s="6"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
     </row>
@@ -3029,6 +3097,8 @@
       <c r="H103" s="7"/>
       <c r="I103" s="15"/>
       <c r="J103" s="7"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
@@ -3041,6 +3111,8 @@
       <c r="H104" s="7"/>
       <c r="I104" s="15"/>
       <c r="J104" s="7"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
@@ -3053,6 +3125,8 @@
       <c r="H105" s="7"/>
       <c r="I105" s="15"/>
       <c r="J105" s="7"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
@@ -3224,7 +3298,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
-      <c r="B120" s="6"/>
+      <c r="B120" s="7"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
@@ -3260,7 +3334,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
-      <c r="B123" s="7"/>
+      <c r="B123" s="6"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
@@ -3272,75 +3346,75 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
       <c r="I124" s="15"/>
-      <c r="J124" s="6"/>
+      <c r="J124" s="7"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
       <c r="I125" s="15"/>
-      <c r="J125" s="6"/>
+      <c r="J125" s="7"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
       <c r="I126" s="15"/>
-      <c r="J126" s="6"/>
+      <c r="J126" s="7"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="10"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
       <c r="I127" s="15"/>
-      <c r="J127" s="11"/>
+      <c r="J127" s="6"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="10"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
       <c r="I128" s="15"/>
-      <c r="J128" s="11"/>
+      <c r="J128" s="6"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="10"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
       <c r="I129" s="15"/>
-      <c r="J129" s="11"/>
+      <c r="J129" s="6"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="10"/>
@@ -3403,7 +3477,7 @@
       <c r="J134" s="11"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="11"/>
+      <c r="A135" s="10"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
@@ -3411,11 +3485,11 @@
       <c r="F135" s="11"/>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
-      <c r="I135" s="16"/>
+      <c r="I135" s="15"/>
       <c r="J135" s="11"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="11"/>
+      <c r="A136" s="10"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
@@ -3423,11 +3497,11 @@
       <c r="F136" s="11"/>
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
-      <c r="I136" s="16"/>
+      <c r="I136" s="15"/>
       <c r="J136" s="11"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="11"/>
+      <c r="A137" s="10"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
@@ -3435,7 +3509,7 @@
       <c r="F137" s="11"/>
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
-      <c r="I137" s="16"/>
+      <c r="I137" s="15"/>
       <c r="J137" s="11"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
@@ -3929,6 +4003,42 @@
       <c r="H178" s="11"/>
       <c r="I178" s="16"/>
       <c r="J178" s="11"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A179" s="11"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="16"/>
+      <c r="J179" s="11"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A180" s="11"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
+      <c r="G180" s="11"/>
+      <c r="H180" s="11"/>
+      <c r="I180" s="16"/>
+      <c r="J180" s="11"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A181" s="11"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="11"/>
+      <c r="H181" s="11"/>
+      <c r="I181" s="16"/>
+      <c r="J181" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4003,21 +4113,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003ADD3040E3157B4E913BCA65F34844D7" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c1765059aa1475931adc12138fdcfd8c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aafb19fa-82be-411d-a6df-c75e9235a4ea" xmlns:ns3="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="42d79c55539af1f9f274032ce6041302" ns2:_="" ns3:_="">
     <xsd:import namespace="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
@@ -4220,24 +4315,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C9FDDB-2830-4DD6-A847-D844746B12F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4254,4 +4347,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/uml/IMKL2.x/IMKL-UML-XSD-Objectcatalogus-changelog.xlsx
+++ b/uml/IMKL2.x/IMKL-UML-XSD-Objectcatalogus-changelog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-dev\uml\IMKL2.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C445744-5F89-4690-B530-CB268DF71A44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978CE74D-4520-4533-AB32-BCCD5DEC59A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
+    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="146">
   <si>
     <t>Datum</t>
   </si>
@@ -464,6 +464,68 @@
     <t>was: Gebied dat een persoon of organisatie tekent om daar informatie over kabels en leidingen van te ontvangen.
 wordt: Een oriëntatiepolygoon is de weergave door een opdrachtgever, grondroerder, aanbieder of bestuursorgaan van een aangesloten gebied, ten aanzien waarvan deze om gebiedsinformatie verzoekt met het oog op respectievelijk het voorbereiden van graafwerkzaamheden, het voorbereiden van een verzoek tot medegebruik of coördinatie van civiele werken, of ten behoeve van de hem opgedragen taak.
  --Source--Artikel 1 en Artikel 7 WIBON</t>
+  </si>
+  <si>
+    <t>IndicatieEisVoorzorgsmaatregel</t>
+  </si>
+  <si>
+    <t>IndicatieEisVoorzorgsmaatregel -&gt; indicatieEisvoorzorgsmaatregel</t>
+  </si>
+  <si>
+    <t>definitie en toelichting gewijzigd</t>
+  </si>
+  <si>
+    <t>GebiedsinformatieLevering</t>
+  </si>
+  <si>
+    <t>KaartBGTrasterIsVerplicht</t>
+  </si>
+  <si>
+    <t>ExtraDetailinfo</t>
+  </si>
+  <si>
+    <t>GeometriePuntLijnMultilijnVlakOfMultivlak</t>
+  </si>
+  <si>
+    <t>multivlak toegevoegd</t>
+  </si>
+  <si>
+    <t>BagIDVerplichtBijHuisaansluiting</t>
+  </si>
+  <si>
+    <t>constraint verwijderd</t>
+  </si>
+  <si>
+    <t>WibonDiepteInMeterMetMaxTweeDecimalen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schrijffout in constraint: dieptepijl -&gt; dieptepeil
+</t>
+  </si>
+  <si>
+    <t>indicatieEisVoorzorgsmaatregel</t>
+  </si>
+  <si>
+    <t>Indicatie…. -&gt; indicatie….</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>nieuwe definitie: -- Definition --
+Contactgegevens</t>
+  </si>
+  <si>
+    <t>BGT_ID</t>
+  </si>
+  <si>
+    <t>toegevoegd voor link naar gerelateerd BGT of plus object</t>
+  </si>
+  <si>
+    <t>CoordinatieOfMedegebruikAlleenBijOrientatieverzoek</t>
+  </si>
+  <si>
+    <t>CoordinatieOfMedegebruikGeenSoortWerkzaamheden</t>
   </si>
 </sst>
 </file>
@@ -960,9 +1022,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B8AAF5-2631-4C35-B121-F1562B5D065D}">
   <dimension ref="A1:N181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A61:A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2484,69 +2546,121 @@
       <c r="I59" s="15"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
+    <row r="60" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>44090</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
+      <c r="F60" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="I60" s="15"/>
       <c r="J60" s="7"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
+      <c r="A61" s="6">
+        <v>44090</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
+      <c r="F61" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="I61" s="15"/>
       <c r="J61" s="7"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
+      <c r="A62" s="6">
+        <v>44090</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
+      <c r="E62" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+      <c r="H62" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="I62" s="15"/>
       <c r="J62" s="7"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
+      <c r="A63" s="6">
+        <v>44090</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
+      <c r="E63" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
+      <c r="H63" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="I63" s="15"/>
       <c r="J63" s="7"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
+      <c r="A64" s="6">
+        <v>44090</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
+      <c r="E64" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="15"/>
@@ -2554,41 +2668,69 @@
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
+    <row r="65" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>44090</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
+      <c r="E65" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
+      <c r="H65" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="I65" s="15"/>
       <c r="J65" s="6"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
+      <c r="A66" s="6">
+        <v>44090</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
+      <c r="F66" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="I66" s="15"/>
       <c r="J66" s="6"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
+    <row r="67" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>44090</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
+      <c r="F67" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="15"/>
@@ -2597,54 +2739,100 @@
       <c r="L67" s="9"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
+      <c r="A68" s="6">
+        <v>44090</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="15"/>
+      <c r="F68" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I68" s="15">
+        <v>304</v>
+      </c>
       <c r="J68" s="7"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="15"/>
+      <c r="A69" s="6">
+        <v>44090</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I69" s="15">
+        <v>304</v>
+      </c>
       <c r="J69" s="6"/>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="6"/>
-      <c r="B70" s="7"/>
+    <row r="70" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>44090</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
+      <c r="E70" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
+      <c r="H70" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="I70" s="15"/>
       <c r="J70" s="6"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" s="6"/>
-      <c r="B71" s="7"/>
+    <row r="71" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>44090</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
+      <c r="E71" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
       <c r="I71" s="15"/>
@@ -4113,6 +4301,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003ADD3040E3157B4E913BCA65F34844D7" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c1765059aa1475931adc12138fdcfd8c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aafb19fa-82be-411d-a6df-c75e9235a4ea" xmlns:ns3="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="42d79c55539af1f9f274032ce6041302" ns2:_="" ns3:_="">
     <xsd:import namespace="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
@@ -4315,22 +4518,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C9FDDB-2830-4DD6-A847-D844746B12F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4347,21 +4552,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/uml/IMKL2.x/IMKL-UML-XSD-Objectcatalogus-changelog.xlsx
+++ b/uml/IMKL2.x/IMKL-UML-XSD-Objectcatalogus-changelog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-dev\uml\IMKL2.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978CE74D-4520-4533-AB32-BCCD5DEC59A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2FDDCE-230E-4EB6-88AA-69423041F91B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="158">
   <si>
     <t>Datum</t>
   </si>
@@ -526,6 +526,46 @@
   </si>
   <si>
     <t>CoordinatieOfMedegebruikGeenSoortWerkzaamheden</t>
+  </si>
+  <si>
+    <t>Postbusadres</t>
+  </si>
+  <si>
+    <t>landcode</t>
+  </si>
+  <si>
+    <t>Definitie aangepast:
+Was: Tweeletterige afkorting van de landsnaam conform ISO 3166 - Country codes
+Wordt: Drieletterige afkorting van de landsnaam conform ISO 3166 - Country codes</t>
+  </si>
+  <si>
+    <t>Definitie aangepast:
+Was: Landcode van het postbusadres (zie codelijst). 
+Wordt: Drieletterige afkorting van de landsnaam conform ISO 3166 - Country codes</t>
+  </si>
+  <si>
+    <t>Waardetype was characterstring, is nu codelijst LandcodeValue</t>
+  </si>
+  <si>
+    <t>Beheerder</t>
+  </si>
+  <si>
+    <t>organisatie</t>
+  </si>
+  <si>
+    <t>Definitie toegevoegd</t>
+  </si>
+  <si>
+    <t>OverigSpecifiek</t>
+  </si>
+  <si>
+    <t>producttype</t>
+  </si>
+  <si>
+    <t>referentie</t>
+  </si>
+  <si>
+    <t>Multiplicitieit Van 0..1 naar 1</t>
   </si>
 </sst>
 </file>
@@ -606,7 +646,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,13 +659,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -634,7 +695,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -668,12 +729,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -683,25 +738,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1020,11 +1120,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B8AAF5-2631-4C35-B121-F1562B5D065D}">
-  <dimension ref="A1:N181"/>
+  <dimension ref="A1:N183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A61:A71"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1036,1904 +1136,1991 @@
     <col min="5" max="5" width="39" style="5" customWidth="1"/>
     <col min="6" max="6" width="47.42578125" style="5" customWidth="1"/>
     <col min="7" max="8" width="18.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="31" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="24">
         <v>43943</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="15">
+      <c r="H2" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="32">
         <v>240</v>
       </c>
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="24">
         <v>43943</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="15">
+      <c r="H3" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="32">
         <v>240</v>
       </c>
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="24">
         <v>43943</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" s="15">
+      <c r="H4" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="32">
         <v>280</v>
       </c>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="24">
         <v>43943</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I5" s="15">
+      <c r="H5" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="32">
         <v>210</v>
       </c>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="24">
         <v>43943</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I6" s="15">
+      <c r="H6" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="32">
         <v>210</v>
       </c>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="24">
         <v>43943</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I7" s="15">
+      <c r="H7" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="32">
         <v>210</v>
       </c>
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="24">
         <v>43943</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="15">
+      <c r="H8" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="32">
         <v>210</v>
       </c>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="24">
         <v>43943</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I9" s="15">
+      <c r="H9" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="32">
         <v>210</v>
       </c>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="24">
         <v>43943</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I10" s="15">
+      <c r="H10" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="32">
         <v>210</v>
       </c>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="24">
         <v>43943</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" s="15">
+      <c r="H11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="32">
         <v>239</v>
       </c>
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="24">
         <v>43943</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I12" s="15">
+      <c r="H12" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="32">
         <v>219</v>
       </c>
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="24">
         <v>43943</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I13" s="15">
+      <c r="H13" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="32">
         <v>219</v>
       </c>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="24">
         <v>43943</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I14" s="15">
+      <c r="H14" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="32">
         <v>219</v>
       </c>
       <c r="J14" s="6"/>
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="24">
         <v>43943</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="15">
+      <c r="H15" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="32">
         <v>219</v>
       </c>
       <c r="J15" s="6"/>
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="24">
         <v>43943</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" s="15">
+      <c r="H16" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="32">
         <v>215</v>
       </c>
       <c r="J16" s="7"/>
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="24">
         <v>43943</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I17" s="15">
+      <c r="H17" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="32">
         <v>214</v>
       </c>
       <c r="J17" s="7"/>
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="1:14" ht="24" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="24">
         <v>43943</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I18" s="15">
+      <c r="H18" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="32">
         <v>199</v>
       </c>
       <c r="J18" s="7"/>
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" ht="24" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="24">
         <v>43943</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I19" s="15">
+      <c r="H19" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="32">
         <v>199</v>
       </c>
       <c r="J19" s="6"/>
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="24">
         <v>43943</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I20" s="15">
+      <c r="H20" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="32">
         <v>197</v>
       </c>
       <c r="J20" s="6"/>
       <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="24">
         <v>43943</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I21" s="15">
+      <c r="H21" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="32">
         <v>197</v>
       </c>
       <c r="J21" s="7"/>
       <c r="N21" s="9"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="24">
         <v>43943</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" s="15">
+      <c r="H22" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" s="32">
         <v>195</v>
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20">
+    <row r="23" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="25">
         <v>43943</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="I23" s="21">
+      <c r="H23" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="33">
         <v>193</v>
       </c>
-      <c r="J23" s="20"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="24">
         <v>43943</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I24" s="15">
+      <c r="H24" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="32">
         <v>195</v>
       </c>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="24">
         <v>43943</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I25" s="15">
+      <c r="H25" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="32">
         <v>282</v>
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
+    <row r="26" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="26">
         <v>43944</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12" t="s">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="I26" s="18"/>
+      <c r="H26" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="34"/>
       <c r="J26" s="12"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" s="15">
+      <c r="H27" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" s="32">
         <v>215</v>
       </c>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:14" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="24">
         <v>43959</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I28" s="15">
+      <c r="H28" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="32">
         <v>215</v>
       </c>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29" s="24">
         <v>43959</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="32">
         <v>286</v>
       </c>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="24">
         <v>43959</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="32">
         <v>195</v>
       </c>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="A31" s="24">
         <v>43973</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6" t="s">
+      <c r="D31" s="24"/>
+      <c r="E31" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I31" s="15">
+      <c r="H31" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="32">
         <v>269</v>
       </c>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="24">
         <v>43973</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6" t="s">
+      <c r="D32" s="24"/>
+      <c r="E32" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I32" s="15">
+      <c r="H32" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I32" s="32">
         <v>269</v>
       </c>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6" t="s">
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I33" s="15">
+      <c r="H33" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I33" s="32">
         <v>286</v>
       </c>
       <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="24">
         <v>43976</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6" t="s">
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I34" s="15">
+      <c r="H34" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I34" s="32">
         <v>240</v>
       </c>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10" ht="96" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35" s="24">
         <v>43976</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6" t="s">
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I35" s="15">
+      <c r="H35" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" s="32">
         <v>240</v>
       </c>
       <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="A36" s="24">
         <v>43976</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6" t="s">
+      <c r="D36" s="24"/>
+      <c r="E36" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I36" s="15">
+      <c r="H36" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I36" s="32">
         <v>269</v>
       </c>
       <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" ht="36" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+      <c r="A37" s="24">
         <v>43984</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6" t="s">
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I37" s="15"/>
+      <c r="H37" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" s="32"/>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="84" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="A38" s="24">
         <v>43984</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6" t="s">
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I38" s="15"/>
+      <c r="H38" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="32"/>
       <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:10" ht="36" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="A39" s="24">
         <v>43984</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6" t="s">
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I39" s="15"/>
+      <c r="H39" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" s="32"/>
       <c r="J39" s="7"/>
     </row>
     <row r="40" spans="1:10" ht="36" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="A40" s="24">
         <v>43984</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6" t="s">
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I40" s="15"/>
+      <c r="H40" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" s="32"/>
       <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:10" ht="36" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="A41" s="24">
         <v>43984</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6" t="s">
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I41" s="15"/>
+      <c r="H41" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I41" s="32"/>
       <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:10" ht="24" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="A42" s="24">
         <v>43984</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6" t="s">
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H42" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I42" s="15"/>
+      <c r="H42" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I42" s="32"/>
       <c r="J42" s="7"/>
     </row>
     <row r="43" spans="1:10" ht="24" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+      <c r="A43" s="24">
         <v>43984</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6" t="s">
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H43" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I43" s="15"/>
+      <c r="H43" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I43" s="32"/>
       <c r="J43" s="7"/>
     </row>
     <row r="44" spans="1:10" ht="24" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44" s="24">
         <v>43990</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H44" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I44" s="15"/>
+      <c r="H44" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I44" s="32"/>
       <c r="J44" s="7"/>
     </row>
     <row r="45" spans="1:10" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="A45" s="24">
         <v>43990</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6" t="s">
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G45" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H45" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I45" s="15"/>
+      <c r="H45" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I45" s="32"/>
       <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:10" ht="290.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="A46" s="24">
         <v>43990</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6" t="s">
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="H46" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I46" s="15"/>
+      <c r="H46" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I46" s="32"/>
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+      <c r="A47" s="24">
         <v>43990</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6" t="s">
+      <c r="D47" s="24"/>
+      <c r="E47" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I47" s="15">
+      <c r="G47" s="24"/>
+      <c r="H47" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I47" s="32">
         <v>269</v>
       </c>
       <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="A48" s="24">
         <v>43990</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6" t="s">
+      <c r="D48" s="24"/>
+      <c r="E48" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I48" s="15">
+      <c r="G48" s="24"/>
+      <c r="H48" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I48" s="32">
         <v>269</v>
       </c>
       <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
+      <c r="A49" s="24">
         <v>43990</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6" t="s">
+      <c r="D49" s="24"/>
+      <c r="E49" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I49" s="15">
+      <c r="G49" s="24"/>
+      <c r="H49" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I49" s="32">
         <v>269</v>
       </c>
       <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
+      <c r="A50" s="24">
         <v>43990</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6" t="s">
+      <c r="D50" s="24"/>
+      <c r="E50" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I50" s="15">
+      <c r="G50" s="24"/>
+      <c r="H50" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I50" s="32">
         <v>269</v>
       </c>
       <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
+      <c r="A51" s="24">
         <v>43990</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6" t="s">
+      <c r="D51" s="24"/>
+      <c r="E51" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I51" s="15">
+      <c r="G51" s="24"/>
+      <c r="H51" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I51" s="32">
         <v>269</v>
       </c>
       <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
+      <c r="A52" s="24">
         <v>43990</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6" t="s">
+      <c r="D52" s="24"/>
+      <c r="E52" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I52" s="15">
+      <c r="G52" s="24"/>
+      <c r="H52" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I52" s="32">
         <v>269</v>
       </c>
       <c r="J52" s="7"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
+      <c r="A53" s="24">
         <v>43990</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6" t="s">
+      <c r="D53" s="24"/>
+      <c r="E53" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I53" s="15">
+      <c r="G53" s="24"/>
+      <c r="H53" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I53" s="32">
         <v>269</v>
       </c>
       <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
+      <c r="A54" s="24">
         <v>43990</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6" t="s">
+      <c r="D54" s="24"/>
+      <c r="E54" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I54" s="15">
+      <c r="G54" s="24"/>
+      <c r="H54" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I54" s="32">
         <v>269</v>
       </c>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="12">
+    <row r="55" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="26">
         <v>43990</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12" t="s">
+      <c r="D55" s="26"/>
+      <c r="E55" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="F55" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="I55" s="24">
+      <c r="G55" s="26"/>
+      <c r="H55" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I55" s="36">
         <v>269</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="144" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
+      <c r="A56" s="24">
         <v>44008</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="12" t="s">
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="G56" s="12" t="s">
+      <c r="G56" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H56" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I56" s="15"/>
+      <c r="H56" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I56" s="32"/>
       <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
+      <c r="A57" s="24">
         <v>44008</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="23" t="s">
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H57" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I57" s="15">
+      <c r="H57" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I57" s="32">
         <v>296</v>
       </c>
       <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
+      <c r="A58" s="24">
         <v>44015</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6" t="s">
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H58" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I58" s="15">
+      <c r="H58" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I58" s="32">
         <v>298</v>
       </c>
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:12" ht="264" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
+      <c r="A59" s="24">
         <v>44015</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6" t="s">
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="15"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="32"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+    <row r="60" spans="1:12" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A60" s="28">
         <v>44090</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6" t="s">
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="G60" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I60" s="15"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
+      <c r="G60" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H60" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I60" s="37"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+    </row>
+    <row r="61" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="28">
         <v>44090</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6" t="s">
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="G61" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I61" s="15"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
+      <c r="G61" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I61" s="37"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+    </row>
+    <row r="62" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="28">
         <v>44090</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6" t="s">
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I62" s="15"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
+      <c r="G62" s="28"/>
+      <c r="H62" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I62" s="37"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+    </row>
+    <row r="63" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="28">
         <v>44090</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6" t="s">
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F63" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I63" s="15"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="6">
+      <c r="G63" s="28"/>
+      <c r="H63" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I63" s="37"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+    </row>
+    <row r="64" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="28">
         <v>44090</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6" t="s">
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F64" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-    </row>
-    <row r="65" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+    </row>
+    <row r="65" spans="1:12" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A65" s="28">
         <v>44090</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6" t="s">
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F65" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I65" s="15"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
+      <c r="G65" s="28"/>
+      <c r="H65" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I65" s="37"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+    </row>
+    <row r="66" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="28">
         <v>44090</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6" t="s">
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="G66" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I66" s="15"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-    </row>
-    <row r="67" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="A67" s="6">
+      <c r="G66" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H66" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I66" s="37"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+    </row>
+    <row r="67" spans="1:12" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A67" s="28">
         <v>44090</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6" t="s">
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="6">
+      <c r="G67" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H67" s="28"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+    </row>
+    <row r="68" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="28">
         <v>44090</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6" t="s">
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="G68" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I68" s="15">
+      <c r="G68" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I68" s="37">
         <v>304</v>
       </c>
-      <c r="J68" s="7"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="6">
+      <c r="J68" s="20"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+    </row>
+    <row r="69" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="28">
         <v>44090</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6" t="s">
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="G69" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I69" s="15">
+      <c r="G69" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I69" s="37">
         <v>304</v>
       </c>
-      <c r="J69" s="6"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-    </row>
-    <row r="70" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="A70" s="6">
+      <c r="J69" s="19"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+    </row>
+    <row r="70" spans="1:12" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A70" s="28">
         <v>44090</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="6" t="s">
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I70" s="15"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-    </row>
-    <row r="71" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="A71" s="6">
+      <c r="G70" s="29"/>
+      <c r="H70" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I70" s="37"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+    </row>
+    <row r="71" spans="1:12" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A71" s="28">
         <v>44090</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="6" t="s">
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="6"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="6"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="6"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+    </row>
+    <row r="72" spans="1:12" s="22" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="28">
+        <v>44097</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="G72" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I72" s="37"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+    </row>
+    <row r="73" spans="1:12" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A73" s="28">
+        <v>44097</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G73" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="H73" s="29"/>
+      <c r="I73" s="37">
+        <v>310</v>
+      </c>
+      <c r="J73" s="20"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+    </row>
+    <row r="74" spans="1:12" s="22" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="28">
+        <v>44097</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="G74" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I74" s="37"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+    </row>
+    <row r="75" spans="1:12" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A75" s="28">
+        <v>44097</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G75" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I75" s="37">
+        <v>310</v>
+      </c>
+      <c r="J75" s="20"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+    </row>
+    <row r="76" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="28">
+        <v>44097</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G76" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="H76" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I76" s="29"/>
+    </row>
+    <row r="77" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="28">
+        <v>44097</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G77" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="H77" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I77" s="37"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="6"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="15"/>
+      <c r="A78" s="24">
+        <v>44104</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G78" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I78" s="32">
+        <v>312</v>
+      </c>
       <c r="J78" s="7"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
@@ -2947,7 +3134,7 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
-      <c r="I79" s="15"/>
+      <c r="I79" s="13"/>
       <c r="J79" s="7"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
@@ -2961,7 +3148,7 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
-      <c r="I80" s="15"/>
+      <c r="I80" s="13"/>
       <c r="J80" s="7"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
@@ -2975,7 +3162,7 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
-      <c r="I81" s="15"/>
+      <c r="I81" s="13"/>
       <c r="J81" s="7"/>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
@@ -2989,7 +3176,7 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
-      <c r="I82" s="15"/>
+      <c r="I82" s="13"/>
       <c r="J82" s="7"/>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
@@ -3003,7 +3190,7 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
-      <c r="I83" s="15"/>
+      <c r="I83" s="13"/>
       <c r="J83" s="7"/>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
@@ -3017,7 +3204,7 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
-      <c r="I84" s="15"/>
+      <c r="I84" s="13"/>
       <c r="J84" s="7"/>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
@@ -3031,7 +3218,7 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
-      <c r="I85" s="15"/>
+      <c r="I85" s="13"/>
       <c r="J85" s="7"/>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
@@ -3045,7 +3232,7 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
-      <c r="I86" s="15"/>
+      <c r="I86" s="13"/>
       <c r="J86" s="7"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
@@ -3059,7 +3246,7 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
-      <c r="I87" s="15"/>
+      <c r="I87" s="13"/>
       <c r="J87" s="7"/>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
@@ -3073,8 +3260,8 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="6"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="7"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
     </row>
@@ -3087,8 +3274,8 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="6"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="7"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
     </row>
@@ -3101,7 +3288,7 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
-      <c r="I90" s="15"/>
+      <c r="I90" s="13"/>
       <c r="J90" s="6"/>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
@@ -3115,7 +3302,7 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
-      <c r="I91" s="15"/>
+      <c r="I91" s="13"/>
       <c r="J91" s="6"/>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
@@ -3129,7 +3316,7 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
-      <c r="I92" s="15"/>
+      <c r="I92" s="13"/>
       <c r="J92" s="6"/>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
@@ -3143,7 +3330,7 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
-      <c r="I93" s="15"/>
+      <c r="I93" s="13"/>
       <c r="J93" s="6"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
@@ -3157,8 +3344,8 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="7"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="6"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
     </row>
@@ -3171,8 +3358,8 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="7"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="6"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
     </row>
@@ -3185,7 +3372,7 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
-      <c r="I96" s="15"/>
+      <c r="I96" s="13"/>
       <c r="J96" s="7"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
@@ -3199,7 +3386,7 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
-      <c r="I97" s="15"/>
+      <c r="I97" s="13"/>
       <c r="J97" s="7"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
@@ -3213,7 +3400,7 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
-      <c r="I98" s="15"/>
+      <c r="I98" s="13"/>
       <c r="J98" s="7"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
@@ -3227,7 +3414,7 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
-      <c r="I99" s="15"/>
+      <c r="I99" s="13"/>
       <c r="J99" s="7"/>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
@@ -3241,7 +3428,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
-      <c r="I100" s="15"/>
+      <c r="I100" s="13"/>
       <c r="J100" s="7"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
@@ -3255,7 +3442,7 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
-      <c r="I101" s="15"/>
+      <c r="I101" s="13"/>
       <c r="J101" s="7"/>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
@@ -3269,7 +3456,7 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
-      <c r="I102" s="15"/>
+      <c r="I102" s="13"/>
       <c r="J102" s="7"/>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
@@ -3283,7 +3470,7 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
-      <c r="I103" s="15"/>
+      <c r="I103" s="13"/>
       <c r="J103" s="7"/>
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
@@ -3297,7 +3484,7 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
-      <c r="I104" s="15"/>
+      <c r="I104" s="13"/>
       <c r="J104" s="7"/>
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
@@ -3311,7 +3498,7 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
-      <c r="I105" s="15"/>
+      <c r="I105" s="13"/>
       <c r="J105" s="7"/>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
@@ -3325,8 +3512,10 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
-      <c r="I106" s="15"/>
+      <c r="I106" s="13"/>
       <c r="J106" s="7"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
@@ -3337,8 +3526,10 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
-      <c r="I107" s="15"/>
+      <c r="I107" s="13"/>
       <c r="J107" s="7"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
@@ -3349,7 +3540,7 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
-      <c r="I108" s="15"/>
+      <c r="I108" s="13"/>
       <c r="J108" s="7"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -3361,7 +3552,7 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
-      <c r="I109" s="15"/>
+      <c r="I109" s="13"/>
       <c r="J109" s="7"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -3373,7 +3564,7 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
-      <c r="I110" s="15"/>
+      <c r="I110" s="13"/>
       <c r="J110" s="7"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -3385,7 +3576,7 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
-      <c r="I111" s="15"/>
+      <c r="I111" s="13"/>
       <c r="J111" s="7"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -3397,7 +3588,7 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
-      <c r="I112" s="15"/>
+      <c r="I112" s="13"/>
       <c r="J112" s="7"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
@@ -3409,7 +3600,7 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
-      <c r="I113" s="15"/>
+      <c r="I113" s="13"/>
       <c r="J113" s="7"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
@@ -3421,7 +3612,7 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
-      <c r="I114" s="15"/>
+      <c r="I114" s="13"/>
       <c r="J114" s="7"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
@@ -3433,7 +3624,7 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
-      <c r="I115" s="15"/>
+      <c r="I115" s="13"/>
       <c r="J115" s="7"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
@@ -3445,7 +3636,7 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
-      <c r="I116" s="15"/>
+      <c r="I116" s="13"/>
       <c r="J116" s="7"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
@@ -3457,7 +3648,7 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
-      <c r="I117" s="15"/>
+      <c r="I117" s="13"/>
       <c r="J117" s="7"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
@@ -3469,7 +3660,7 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
-      <c r="I118" s="15"/>
+      <c r="I118" s="13"/>
       <c r="J118" s="7"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
@@ -3481,7 +3672,7 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
-      <c r="I119" s="15"/>
+      <c r="I119" s="13"/>
       <c r="J119" s="7"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
@@ -3493,7 +3684,7 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
-      <c r="I120" s="15"/>
+      <c r="I120" s="13"/>
       <c r="J120" s="7"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
@@ -3505,7 +3696,7 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
-      <c r="I121" s="15"/>
+      <c r="I121" s="13"/>
       <c r="J121" s="7"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
@@ -3517,19 +3708,19 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
-      <c r="I122" s="15"/>
+      <c r="I122" s="13"/>
       <c r="J122" s="7"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
-      <c r="B123" s="6"/>
+      <c r="B123" s="7"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
-      <c r="I123" s="15"/>
+      <c r="I123" s="13"/>
       <c r="J123" s="7"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
@@ -3541,19 +3732,19 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
-      <c r="I124" s="15"/>
+      <c r="I124" s="13"/>
       <c r="J124" s="7"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
-      <c r="B125" s="7"/>
+      <c r="B125" s="6"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
-      <c r="I125" s="15"/>
+      <c r="I125" s="13"/>
       <c r="J125" s="7"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
@@ -3565,32 +3756,32 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
-      <c r="I126" s="15"/>
+      <c r="I126" s="13"/>
       <c r="J126" s="7"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="6"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="13"/>
+      <c r="J127" s="7"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="6"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="7"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
@@ -3601,32 +3792,32 @@
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
-      <c r="I129" s="15"/>
+      <c r="I129" s="13"/>
       <c r="J129" s="6"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="10"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="11"/>
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="13"/>
+      <c r="J130" s="6"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" s="10"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="11"/>
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="6"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="10"/>
@@ -3637,7 +3828,7 @@
       <c r="F132" s="11"/>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
-      <c r="I132" s="15"/>
+      <c r="I132" s="13"/>
       <c r="J132" s="11"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
@@ -3649,7 +3840,7 @@
       <c r="F133" s="11"/>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
-      <c r="I133" s="15"/>
+      <c r="I133" s="13"/>
       <c r="J133" s="11"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
@@ -3661,7 +3852,7 @@
       <c r="F134" s="11"/>
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
-      <c r="I134" s="15"/>
+      <c r="I134" s="13"/>
       <c r="J134" s="11"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
@@ -3673,7 +3864,7 @@
       <c r="F135" s="11"/>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
-      <c r="I135" s="15"/>
+      <c r="I135" s="13"/>
       <c r="J135" s="11"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
@@ -3685,7 +3876,7 @@
       <c r="F136" s="11"/>
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
-      <c r="I136" s="15"/>
+      <c r="I136" s="13"/>
       <c r="J136" s="11"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
@@ -3697,11 +3888,11 @@
       <c r="F137" s="11"/>
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
-      <c r="I137" s="15"/>
+      <c r="I137" s="13"/>
       <c r="J137" s="11"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="11"/>
+      <c r="A138" s="10"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
@@ -3709,11 +3900,11 @@
       <c r="F138" s="11"/>
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
-      <c r="I138" s="16"/>
+      <c r="I138" s="13"/>
       <c r="J138" s="11"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A139" s="11"/>
+      <c r="A139" s="10"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
@@ -3721,7 +3912,7 @@
       <c r="F139" s="11"/>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
-      <c r="I139" s="16"/>
+      <c r="I139" s="13"/>
       <c r="J139" s="11"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
@@ -3733,7 +3924,7 @@
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
-      <c r="I140" s="16"/>
+      <c r="I140" s="14"/>
       <c r="J140" s="11"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
@@ -3745,7 +3936,7 @@
       <c r="F141" s="11"/>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
-      <c r="I141" s="16"/>
+      <c r="I141" s="14"/>
       <c r="J141" s="11"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
@@ -3757,7 +3948,7 @@
       <c r="F142" s="11"/>
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
-      <c r="I142" s="16"/>
+      <c r="I142" s="14"/>
       <c r="J142" s="11"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
@@ -3769,7 +3960,7 @@
       <c r="F143" s="11"/>
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
-      <c r="I143" s="16"/>
+      <c r="I143" s="14"/>
       <c r="J143" s="11"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
@@ -3781,7 +3972,7 @@
       <c r="F144" s="11"/>
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
-      <c r="I144" s="16"/>
+      <c r="I144" s="14"/>
       <c r="J144" s="11"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
@@ -3793,7 +3984,7 @@
       <c r="F145" s="11"/>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
-      <c r="I145" s="16"/>
+      <c r="I145" s="14"/>
       <c r="J145" s="11"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
@@ -3805,7 +3996,7 @@
       <c r="F146" s="11"/>
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
-      <c r="I146" s="16"/>
+      <c r="I146" s="14"/>
       <c r="J146" s="11"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
@@ -3817,7 +4008,7 @@
       <c r="F147" s="11"/>
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
-      <c r="I147" s="16"/>
+      <c r="I147" s="14"/>
       <c r="J147" s="11"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
@@ -3829,7 +4020,7 @@
       <c r="F148" s="11"/>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
-      <c r="I148" s="16"/>
+      <c r="I148" s="14"/>
       <c r="J148" s="11"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
@@ -3841,7 +4032,7 @@
       <c r="F149" s="11"/>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
-      <c r="I149" s="16"/>
+      <c r="I149" s="14"/>
       <c r="J149" s="11"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
@@ -3853,7 +4044,7 @@
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
-      <c r="I150" s="16"/>
+      <c r="I150" s="14"/>
       <c r="J150" s="11"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
@@ -3865,7 +4056,7 @@
       <c r="F151" s="11"/>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
-      <c r="I151" s="16"/>
+      <c r="I151" s="14"/>
       <c r="J151" s="11"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
@@ -3877,7 +4068,7 @@
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
-      <c r="I152" s="16"/>
+      <c r="I152" s="14"/>
       <c r="J152" s="11"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
@@ -3889,7 +4080,7 @@
       <c r="F153" s="11"/>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
-      <c r="I153" s="16"/>
+      <c r="I153" s="14"/>
       <c r="J153" s="11"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
@@ -3901,7 +4092,7 @@
       <c r="F154" s="11"/>
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
-      <c r="I154" s="16"/>
+      <c r="I154" s="14"/>
       <c r="J154" s="11"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
@@ -3913,7 +4104,7 @@
       <c r="F155" s="11"/>
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
-      <c r="I155" s="16"/>
+      <c r="I155" s="14"/>
       <c r="J155" s="11"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
@@ -3925,7 +4116,7 @@
       <c r="F156" s="11"/>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
-      <c r="I156" s="16"/>
+      <c r="I156" s="14"/>
       <c r="J156" s="11"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
@@ -3937,7 +4128,7 @@
       <c r="F157" s="11"/>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
-      <c r="I157" s="16"/>
+      <c r="I157" s="14"/>
       <c r="J157" s="11"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
@@ -3949,7 +4140,7 @@
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
       <c r="H158" s="11"/>
-      <c r="I158" s="16"/>
+      <c r="I158" s="14"/>
       <c r="J158" s="11"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
@@ -3961,7 +4152,7 @@
       <c r="F159" s="11"/>
       <c r="G159" s="11"/>
       <c r="H159" s="11"/>
-      <c r="I159" s="16"/>
+      <c r="I159" s="14"/>
       <c r="J159" s="11"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
@@ -3973,7 +4164,7 @@
       <c r="F160" s="11"/>
       <c r="G160" s="11"/>
       <c r="H160" s="11"/>
-      <c r="I160" s="16"/>
+      <c r="I160" s="14"/>
       <c r="J160" s="11"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
@@ -3985,7 +4176,7 @@
       <c r="F161" s="11"/>
       <c r="G161" s="11"/>
       <c r="H161" s="11"/>
-      <c r="I161" s="16"/>
+      <c r="I161" s="14"/>
       <c r="J161" s="11"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
@@ -3997,7 +4188,7 @@
       <c r="F162" s="11"/>
       <c r="G162" s="11"/>
       <c r="H162" s="11"/>
-      <c r="I162" s="16"/>
+      <c r="I162" s="14"/>
       <c r="J162" s="11"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
@@ -4009,7 +4200,7 @@
       <c r="F163" s="11"/>
       <c r="G163" s="11"/>
       <c r="H163" s="11"/>
-      <c r="I163" s="16"/>
+      <c r="I163" s="14"/>
       <c r="J163" s="11"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
@@ -4021,7 +4212,7 @@
       <c r="F164" s="11"/>
       <c r="G164" s="11"/>
       <c r="H164" s="11"/>
-      <c r="I164" s="16"/>
+      <c r="I164" s="14"/>
       <c r="J164" s="11"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
@@ -4033,7 +4224,7 @@
       <c r="F165" s="11"/>
       <c r="G165" s="11"/>
       <c r="H165" s="11"/>
-      <c r="I165" s="16"/>
+      <c r="I165" s="14"/>
       <c r="J165" s="11"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
@@ -4045,7 +4236,7 @@
       <c r="F166" s="11"/>
       <c r="G166" s="11"/>
       <c r="H166" s="11"/>
-      <c r="I166" s="16"/>
+      <c r="I166" s="14"/>
       <c r="J166" s="11"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
@@ -4057,7 +4248,7 @@
       <c r="F167" s="11"/>
       <c r="G167" s="11"/>
       <c r="H167" s="11"/>
-      <c r="I167" s="16"/>
+      <c r="I167" s="14"/>
       <c r="J167" s="11"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
@@ -4069,7 +4260,7 @@
       <c r="F168" s="11"/>
       <c r="G168" s="11"/>
       <c r="H168" s="11"/>
-      <c r="I168" s="16"/>
+      <c r="I168" s="14"/>
       <c r="J168" s="11"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
@@ -4081,7 +4272,7 @@
       <c r="F169" s="11"/>
       <c r="G169" s="11"/>
       <c r="H169" s="11"/>
-      <c r="I169" s="16"/>
+      <c r="I169" s="14"/>
       <c r="J169" s="11"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
@@ -4093,7 +4284,7 @@
       <c r="F170" s="11"/>
       <c r="G170" s="11"/>
       <c r="H170" s="11"/>
-      <c r="I170" s="16"/>
+      <c r="I170" s="14"/>
       <c r="J170" s="11"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
@@ -4105,7 +4296,7 @@
       <c r="F171" s="11"/>
       <c r="G171" s="11"/>
       <c r="H171" s="11"/>
-      <c r="I171" s="16"/>
+      <c r="I171" s="14"/>
       <c r="J171" s="11"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
@@ -4117,7 +4308,7 @@
       <c r="F172" s="11"/>
       <c r="G172" s="11"/>
       <c r="H172" s="11"/>
-      <c r="I172" s="16"/>
+      <c r="I172" s="14"/>
       <c r="J172" s="11"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
@@ -4129,7 +4320,7 @@
       <c r="F173" s="11"/>
       <c r="G173" s="11"/>
       <c r="H173" s="11"/>
-      <c r="I173" s="16"/>
+      <c r="I173" s="14"/>
       <c r="J173" s="11"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
@@ -4141,7 +4332,7 @@
       <c r="F174" s="11"/>
       <c r="G174" s="11"/>
       <c r="H174" s="11"/>
-      <c r="I174" s="16"/>
+      <c r="I174" s="14"/>
       <c r="J174" s="11"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
@@ -4153,7 +4344,7 @@
       <c r="F175" s="11"/>
       <c r="G175" s="11"/>
       <c r="H175" s="11"/>
-      <c r="I175" s="16"/>
+      <c r="I175" s="14"/>
       <c r="J175" s="11"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
@@ -4165,7 +4356,7 @@
       <c r="F176" s="11"/>
       <c r="G176" s="11"/>
       <c r="H176" s="11"/>
-      <c r="I176" s="16"/>
+      <c r="I176" s="14"/>
       <c r="J176" s="11"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
@@ -4177,7 +4368,7 @@
       <c r="F177" s="11"/>
       <c r="G177" s="11"/>
       <c r="H177" s="11"/>
-      <c r="I177" s="16"/>
+      <c r="I177" s="14"/>
       <c r="J177" s="11"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
@@ -4189,7 +4380,7 @@
       <c r="F178" s="11"/>
       <c r="G178" s="11"/>
       <c r="H178" s="11"/>
-      <c r="I178" s="16"/>
+      <c r="I178" s="14"/>
       <c r="J178" s="11"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
@@ -4201,7 +4392,7 @@
       <c r="F179" s="11"/>
       <c r="G179" s="11"/>
       <c r="H179" s="11"/>
-      <c r="I179" s="16"/>
+      <c r="I179" s="14"/>
       <c r="J179" s="11"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
@@ -4213,7 +4404,7 @@
       <c r="F180" s="11"/>
       <c r="G180" s="11"/>
       <c r="H180" s="11"/>
-      <c r="I180" s="16"/>
+      <c r="I180" s="14"/>
       <c r="J180" s="11"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
@@ -4225,8 +4416,32 @@
       <c r="F181" s="11"/>
       <c r="G181" s="11"/>
       <c r="H181" s="11"/>
-      <c r="I181" s="16"/>
+      <c r="I181" s="14"/>
       <c r="J181" s="11"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A182" s="11"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11"/>
+      <c r="G182" s="11"/>
+      <c r="H182" s="11"/>
+      <c r="I182" s="14"/>
+      <c r="J182" s="11"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A183" s="11"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="11"/>
+      <c r="I183" s="14"/>
+      <c r="J183" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
